--- a/IB_API_ReturnMessage_v2.3_20230919.xlsx
+++ b/IB_API_ReturnMessage_v2.3_20230919.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\업무관련설계서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\업무관련설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF20BE45-655B-4F8B-A5A1-49A2B224AA12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A5761-F6C0-478B-8D63-60EABD83174E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="16" r:id="rId1"/>
@@ -4551,10 +4551,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>단품가격수정 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>강석진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4600,6 +4596,11 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단품가격수정 추가
+전시매장수정 삭제기능 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4610,7 +4611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4904,7 +4905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5007,6 +5008,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5034,11 +5041,14 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5091,8 +5101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="6644640"/>
-          <a:ext cx="6355080" cy="868680"/>
+          <a:off x="1369695" y="7117080"/>
+          <a:ext cx="6356985" cy="981075"/>
           <a:chOff x="144" y="718"/>
           <a:chExt cx="472" cy="89"/>
         </a:xfrm>
@@ -7029,11 +7039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="5" width="11.59765625" style="10"/>
     <col min="6" max="6" width="43.3984375" style="10" customWidth="1"/>
@@ -7166,13 +7176,13 @@
     <col min="16135" max="16384" width="11.59765625" style="12"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" ht="36">
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" ht="36">
       <c r="F8" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:8" ht="41.4" thickBot="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -7183,17 +7193,17 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="25.8" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" ht="25.8" thickTop="1">
       <c r="F11" s="17" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.2">
+      <c r="F12" s="17" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="F12" s="17" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" ht="21" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:6" ht="21">
       <c r="F39" s="18"/>
     </row>
   </sheetData>
@@ -7208,51 +7218,51 @@
   <dimension ref="A5:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:J13"/>
+      <selection activeCell="F11" sqref="F11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:15" ht="27.6">
+      <c r="A5" s="41" t="s">
         <v>1228</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.4">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:15" ht="40.200000000000003">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
         <v>1229</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>1230</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="42" t="s">
         <v>1231</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="41"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="21" t="s">
         <v>1232</v>
       </c>
@@ -7265,23 +7275,23 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="40.200000000000003">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>1323</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38" t="s">
         <v>1324</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="23" t="s">
         <v>1325</v>
       </c>
@@ -7292,23 +7302,23 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="40.200000000000003">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="22">
         <v>2.1</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>1355</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="38" t="s">
         <v>1356</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="23" t="s">
         <v>1245</v>
       </c>
@@ -7319,21 +7329,21 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="34.5" customHeight="1">
       <c r="C10" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="36" t="s">
         <v>1357</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="38" t="s">
         <v>1358</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="23" t="s">
         <v>1245</v>
       </c>
@@ -7342,275 +7352,239 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="36.6" customHeight="1">
       <c r="C11" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="36" t="s">
         <v>1421</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="23" t="s">
         <v>1422</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="23" t="s">
-        <v>1423</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>1325</v>
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="19.2">
       <c r="C12" s="22"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="19.2">
       <c r="C13" s="24"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="19.2">
       <c r="C14" s="24"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="19.2">
       <c r="C15" s="24"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="19.2">
       <c r="C16" s="24"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:13" ht="19.2">
       <c r="C17" s="24"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:13" ht="19.2">
       <c r="C18" s="24"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13" ht="19.2">
       <c r="C19" s="24"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:13" ht="19.2">
       <c r="C20" s="24"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:13" ht="19.2">
       <c r="C21" s="24"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:13" ht="19.2">
       <c r="C22" s="24"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:13" ht="19.2">
       <c r="C23" s="24"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:13" ht="19.2">
       <c r="C24" s="24"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:13" ht="19.2">
       <c r="C25" s="24"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:13" ht="19.2">
       <c r="C26" s="24"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="3:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:13" ht="19.2">
       <c r="C27" s="24"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A5:O5"/>
@@ -7618,10 +7592,47 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7633,19 +7644,19 @@
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="3" max="3" width="23.8984375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
@@ -7659,7 +7670,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -7673,7 +7684,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -7687,7 +7698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -7701,7 +7712,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -7715,7 +7726,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -7729,7 +7740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -7743,7 +7754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -7757,7 +7768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -7771,7 +7782,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -7785,16 +7796,16 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
@@ -7814,7 +7825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -7836,7 +7847,7 @@
         <v>OR101</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -7858,7 +7869,7 @@
         <v>OR102</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -7880,7 +7891,7 @@
         <v>DV101</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -7902,7 +7913,7 @@
         <v>CC101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="2">
         <v>5</v>
       </c>
@@ -7924,7 +7935,7 @@
         <v>CC102</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7">
       <c r="B21" s="2">
         <v>6</v>
       </c>
@@ -7946,7 +7957,7 @@
         <v>CC103</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7">
       <c r="B22" s="2">
         <v>7</v>
       </c>
@@ -7968,7 +7979,7 @@
         <v>RT101</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7">
       <c r="B23" s="2">
         <v>8</v>
       </c>
@@ -7990,7 +8001,7 @@
         <v>RT102</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" s="2">
         <v>9</v>
       </c>
@@ -8012,7 +8023,7 @@
         <v>RT103</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7">
       <c r="B25" s="2">
         <v>10</v>
       </c>
@@ -8034,7 +8045,7 @@
         <v>ST101</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7">
       <c r="B26" s="2">
         <v>11</v>
       </c>
@@ -8056,7 +8067,7 @@
         <v>ST102</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7">
       <c r="B27" s="2">
         <v>12</v>
       </c>
@@ -8078,7 +8089,7 @@
         <v>CM103</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7">
       <c r="B28" s="2">
         <v>13</v>
       </c>
@@ -8100,7 +8111,7 @@
         <v>CM101</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7">
       <c r="B29" s="2">
         <v>14</v>
       </c>
@@ -8122,7 +8133,7 @@
         <v>CM102</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7">
       <c r="B30" s="2">
         <v>15</v>
       </c>
@@ -8144,7 +8155,7 @@
         <v>CM105</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7">
       <c r="B31" s="2">
         <v>16</v>
       </c>
@@ -8166,7 +8177,7 @@
         <v>CM104</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7">
       <c r="B32" s="2">
         <v>17</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>GD103</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7">
       <c r="B33" s="2">
         <v>18</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>GD104</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7">
       <c r="B34" s="2">
         <v>19</v>
       </c>
@@ -8232,7 +8243,7 @@
         <v>GD108</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7">
       <c r="B35" s="2">
         <v>20</v>
       </c>
@@ -8254,7 +8265,7 @@
         <v>GD105</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7">
       <c r="B36" s="2">
         <v>21</v>
       </c>
@@ -8276,7 +8287,7 @@
         <v>GD107</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7">
       <c r="B37" s="2">
         <v>22</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>GD106</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7">
       <c r="B38" s="2">
         <v>23</v>
       </c>
@@ -8320,7 +8331,7 @@
         <v>GD110</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7">
       <c r="B39" s="2">
         <v>24</v>
       </c>
@@ -8342,7 +8353,7 @@
         <v>GD101</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7">
       <c r="B40" s="2">
         <v>25</v>
       </c>
@@ -8364,7 +8375,7 @@
         <v>GD102</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7">
       <c r="B41" s="2">
         <v>26</v>
       </c>
@@ -8386,7 +8397,7 @@
         <v>GD111</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7">
       <c r="B42" s="2">
         <v>27</v>
       </c>
@@ -8408,7 +8419,7 @@
         <v>GD112</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7">
       <c r="B43" s="2">
         <v>28</v>
       </c>
@@ -8430,7 +8441,7 @@
         <v>GD109</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7">
       <c r="B44" s="2">
         <v>29</v>
       </c>
@@ -8452,7 +8463,7 @@
         <v>CM114</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7">
       <c r="B45" s="2">
         <v>30</v>
       </c>
@@ -8474,7 +8485,7 @@
         <v>CM106</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7">
       <c r="B46" s="2">
         <v>31</v>
       </c>
@@ -8496,7 +8507,7 @@
         <v>CM107</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7">
       <c r="B47" s="2">
         <v>32</v>
       </c>
@@ -8518,7 +8529,7 @@
         <v>CM108</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7">
       <c r="B48" s="2">
         <v>33</v>
       </c>
@@ -8540,7 +8551,7 @@
         <v>CS101</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="2">
         <v>34</v>
       </c>
@@ -8562,7 +8573,7 @@
         <v>CS102</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50" s="2">
         <v>35</v>
       </c>
@@ -8584,7 +8595,7 @@
         <v>CM109</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7">
       <c r="B51" s="2">
         <v>36</v>
       </c>
@@ -8606,7 +8617,7 @@
         <v>CM110</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7">
       <c r="B52" s="2">
         <v>37</v>
       </c>
@@ -8628,7 +8639,7 @@
         <v>CM111</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7">
       <c r="B53" s="2">
         <v>38</v>
       </c>
@@ -8650,7 +8661,7 @@
         <v>GD113</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7">
       <c r="B54" s="2">
         <v>39</v>
       </c>
@@ -8672,7 +8683,7 @@
         <v>GD114</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7">
       <c r="B55" s="2">
         <v>40</v>
       </c>
@@ -8694,7 +8705,7 @@
         <v>CM112</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7">
       <c r="B56" s="2">
         <v>41</v>
       </c>
@@ -8716,7 +8727,7 @@
         <v>CM113</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7">
       <c r="B57" s="2">
         <v>42</v>
       </c>
@@ -8738,7 +8749,7 @@
         <v>GD115</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7">
       <c r="B58" s="2">
         <v>43</v>
       </c>
@@ -8760,12 +8771,12 @@
         <v>GD116</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7">
       <c r="B60" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7">
       <c r="B61" s="4" t="s">
         <v>80</v>
       </c>
@@ -8776,7 +8787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7">
       <c r="B62" s="2">
         <v>1</v>
       </c>
@@ -8787,7 +8798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7">
       <c r="B63" s="2">
         <v>2</v>
       </c>
@@ -8798,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7">
       <c r="B64" s="2">
         <v>3</v>
       </c>
@@ -8809,7 +8820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:4">
       <c r="B65" s="2">
         <v>4</v>
       </c>
@@ -8820,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:4">
       <c r="B66" s="2">
         <v>5</v>
       </c>
@@ -8831,7 +8842,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:4">
       <c r="B67" s="2">
         <v>6</v>
       </c>
@@ -8842,7 +8853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:4">
       <c r="B68" s="2">
         <v>7</v>
       </c>
@@ -8868,11 +8879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A599" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D599" sqref="D599"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -8883,7 +8894,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1241</v>
       </c>
@@ -8906,7 +8917,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f>LEFT(C2,5)</f>
         <v>GD101</v>
@@ -8931,7 +8942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(C3,5)</f>
         <v>GD101</v>
@@ -8956,7 +8967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -8981,7 +8992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9006,7 +9017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9031,7 +9042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9056,7 +9067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9081,7 +9092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9106,7 +9117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9131,7 +9142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9156,7 +9167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9181,7 +9192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9206,7 +9217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9231,7 +9242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9256,7 +9267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9281,7 +9292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9306,7 +9317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9331,7 +9342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9356,7 +9367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9381,7 +9392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9406,7 +9417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9431,7 +9442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9456,7 +9467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9481,7 +9492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9506,7 +9517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9531,7 +9542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9556,7 +9567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9581,7 +9592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9606,7 +9617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9631,7 +9642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9656,7 +9667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9681,7 +9692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9706,7 +9717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9731,7 +9742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9756,7 +9767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9781,7 +9792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9806,7 +9817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9831,7 +9842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9856,7 +9867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9881,7 +9892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9906,7 +9917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9931,7 +9942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9956,7 +9967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -9981,7 +9992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10006,7 +10017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10031,7 +10042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10056,7 +10067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10081,7 +10092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10106,7 +10117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10131,7 +10142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10156,7 +10167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10181,7 +10192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10206,7 +10217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10231,7 +10242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10256,7 +10267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10281,7 +10292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10306,7 +10317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10331,7 +10342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10356,7 +10367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10381,7 +10392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10406,7 +10417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10431,7 +10442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10456,7 +10467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10481,7 +10492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10506,7 +10517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GD101</v>
@@ -10531,7 +10542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A130" si="2">LEFT(C67,5)</f>
         <v>GD101</v>
@@ -10556,7 +10567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10581,7 +10592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10606,7 +10617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10631,7 +10642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10656,7 +10667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10681,7 +10692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10706,7 +10717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10731,7 +10742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10756,7 +10767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10781,7 +10792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10806,7 +10817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10831,7 +10842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10856,7 +10867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10881,7 +10892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10906,7 +10917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10931,7 +10942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10956,7 +10967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -10981,7 +10992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11006,7 +11017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11031,7 +11042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11056,7 +11067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11081,7 +11092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11106,7 +11117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11131,7 +11142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11156,7 +11167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11181,7 +11192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11206,7 +11217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7">
       <c r="A94" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11231,7 +11242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11256,7 +11267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11281,7 +11292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11306,7 +11317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11331,7 +11342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11356,7 +11367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11381,7 +11392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11406,7 +11417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11431,7 +11442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11456,7 +11467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11481,7 +11492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11506,7 +11517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11531,7 +11542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11556,7 +11567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11581,7 +11592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11606,7 +11617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11631,7 +11642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11656,7 +11667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11681,7 +11692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11706,7 +11717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11731,7 +11742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11756,7 +11767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11781,7 +11792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11806,7 +11817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11831,7 +11842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11856,7 +11867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11881,7 +11892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11906,7 +11917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11931,7 +11942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11956,7 +11967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -11981,7 +11992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12006,7 +12017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12031,7 +12042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12056,7 +12067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12081,7 +12092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12106,7 +12117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GD101</v>
@@ -12131,7 +12142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="str">
         <f t="shared" ref="A131:A194" si="4">LEFT(C131,5)</f>
         <v>GD101</v>
@@ -12156,7 +12167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12181,7 +12192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12206,7 +12217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12231,7 +12242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12256,7 +12267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12281,7 +12292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12306,7 +12317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12331,7 +12342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12356,7 +12367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12381,7 +12392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12406,7 +12417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12431,7 +12442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12456,7 +12467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12481,7 +12492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12506,7 +12517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12531,7 +12542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12556,7 +12567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12581,7 +12592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12606,7 +12617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12631,7 +12642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12656,7 +12667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12681,7 +12692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12706,7 +12717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12731,7 +12742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12756,7 +12767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12781,7 +12792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12806,7 +12817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12831,7 +12842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12856,7 +12867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12881,7 +12892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12906,7 +12917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7">
       <c r="A162" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12931,7 +12942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12956,7 +12967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -12981,7 +12992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13006,7 +13017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13031,7 +13042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13056,7 +13067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13081,7 +13092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13106,7 +13117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13131,7 +13142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7">
       <c r="A171" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13156,7 +13167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7">
       <c r="A172" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13181,7 +13192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7">
       <c r="A173" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13206,7 +13217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7">
       <c r="A174" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13231,7 +13242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13256,7 +13267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7">
       <c r="A176" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13281,7 +13292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13306,7 +13317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13331,7 +13342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13356,7 +13367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13381,7 +13392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13406,7 +13417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13431,7 +13442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13456,7 +13467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13481,7 +13492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13506,7 +13517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13531,7 +13542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13556,7 +13567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13581,7 +13592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13606,7 +13617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13631,7 +13642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13656,7 +13667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13681,7 +13692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13706,7 +13717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="str">
         <f t="shared" si="4"/>
         <v>GD101</v>
@@ -13731,7 +13742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="str">
         <f t="shared" ref="A195:A287" si="6">LEFT(C195,5)</f>
         <v>GD101</v>
@@ -13756,7 +13767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13781,7 +13792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13806,7 +13817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13831,7 +13842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13856,7 +13867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13881,7 +13892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13906,7 +13917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13931,7 +13942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13956,7 +13967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -13981,7 +13992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14006,7 +14017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14031,7 +14042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14056,7 +14067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14081,7 +14092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14106,7 +14117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7">
       <c r="A210" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14130,7 +14141,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" ht="13.95" customHeight="1">
       <c r="A211" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14154,7 +14165,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7">
       <c r="A212" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14178,7 +14189,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14201,7 +14212,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14224,7 +14235,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14247,7 +14258,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14270,7 +14281,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14293,7 +14304,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14316,7 +14327,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14339,7 +14350,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14362,7 +14373,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14385,7 +14396,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7">
       <c r="A222" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14409,7 +14420,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7">
       <c r="A223" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14433,7 +14444,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7">
       <c r="A224" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14457,7 +14468,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7">
       <c r="A225" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14481,7 +14492,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" ht="18" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14504,7 +14515,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" ht="18" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14527,7 +14538,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" ht="18" customHeight="1">
       <c r="A228" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14550,7 +14561,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" ht="18" customHeight="1">
       <c r="A229" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14573,7 +14584,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" ht="18" customHeight="1">
       <c r="A230" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14596,7 +14607,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" ht="18" customHeight="1">
       <c r="A231" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14619,7 +14630,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" ht="18" customHeight="1">
       <c r="A232" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14642,7 +14653,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" ht="18" customHeight="1">
       <c r="A233" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14665,7 +14676,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" ht="18" customHeight="1">
       <c r="A234" s="30" t="s">
         <v>1263</v>
       </c>
@@ -14688,7 +14699,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" ht="18" customHeight="1">
       <c r="A235" s="30" t="s">
         <v>1331</v>
       </c>
@@ -14711,7 +14722,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" ht="18" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>1338</v>
       </c>
@@ -14734,7 +14745,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" ht="18" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14757,7 +14768,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" ht="18" customHeight="1">
       <c r="A238" s="28" t="s">
         <v>1263</v>
       </c>
@@ -14781,7 +14792,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7">
       <c r="A239" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD101</v>
@@ -14806,7 +14817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7">
       <c r="A240" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14831,7 +14842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7">
       <c r="A241" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14856,7 +14867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7">
       <c r="A242" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14881,7 +14892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7">
       <c r="A243" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14906,7 +14917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7">
       <c r="A244" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14931,7 +14942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7">
       <c r="A245" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14956,7 +14967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7">
       <c r="A246" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -14981,7 +14992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7">
       <c r="A247" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -15006,7 +15017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7">
       <c r="A248" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD102</v>
@@ -15031,7 +15042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7">
       <c r="A249" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15056,7 +15067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7">
       <c r="A250" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15081,7 +15092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7">
       <c r="A251" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15106,7 +15117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7">
       <c r="A252" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15131,7 +15142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7">
       <c r="A253" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15156,7 +15167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7">
       <c r="A254" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15181,7 +15192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7">
       <c r="A255" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15206,7 +15217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7">
       <c r="A256" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15231,7 +15242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:7">
       <c r="A257" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15256,7 +15267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:7">
       <c r="A258" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15281,7 +15292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:7">
       <c r="A259" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15306,7 +15317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:7">
       <c r="A260" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15331,7 +15342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:7">
       <c r="A261" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15356,7 +15367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:7">
       <c r="A262" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15381,7 +15392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:7">
       <c r="A263" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15406,7 +15417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:7">
       <c r="A264" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15431,7 +15442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:7">
       <c r="A265" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15456,7 +15467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:7">
       <c r="A266" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15481,7 +15492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:7">
       <c r="A267" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15506,7 +15517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:7">
       <c r="A268" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15531,7 +15542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:7">
       <c r="A269" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15556,7 +15567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:7">
       <c r="A270" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15581,7 +15592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:7">
       <c r="A271" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15606,7 +15617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:7">
       <c r="A272" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15631,7 +15642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:7">
       <c r="A273" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15656,7 +15667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:7">
       <c r="A274" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15681,7 +15692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:7">
       <c r="A275" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15706,7 +15717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:7">
       <c r="A276" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15731,7 +15742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:7">
       <c r="A277" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15756,7 +15767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:7">
       <c r="A278" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15781,7 +15792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:7">
       <c r="A279" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15806,7 +15817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:7">
       <c r="A280" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15831,7 +15842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:7">
       <c r="A281" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15856,7 +15867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:7">
       <c r="A282" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15881,7 +15892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:7">
       <c r="A283" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15906,7 +15917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:7">
       <c r="A284" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15931,7 +15942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:7">
       <c r="A285" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15956,7 +15967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:7">
       <c r="A286" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -15981,7 +15992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:7">
       <c r="A287" s="2" t="str">
         <f t="shared" si="6"/>
         <v>GD103</v>
@@ -16006,7 +16017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:7">
       <c r="A288" s="2" t="str">
         <f t="shared" ref="A288:A361" si="9">LEFT(C288,5)</f>
         <v>GD103</v>
@@ -16031,7 +16042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:7">
       <c r="A289" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16056,7 +16067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:7">
       <c r="A290" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16081,7 +16092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:7">
       <c r="A291" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16106,7 +16117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16131,7 +16142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:7">
       <c r="A293" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16156,7 +16167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:7">
       <c r="A294" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16181,7 +16192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:7">
       <c r="A295" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16206,7 +16217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16231,7 +16242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:7">
       <c r="A297" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16256,7 +16267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:7">
       <c r="A298" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16281,7 +16292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:7">
       <c r="A299" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16306,7 +16317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:7">
       <c r="A300" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16331,7 +16342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:7">
       <c r="A301" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16356,7 +16367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:7">
       <c r="A302" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16381,7 +16392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:7">
       <c r="A303" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16406,7 +16417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:7">
       <c r="A304" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16431,7 +16442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:7">
       <c r="A305" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16456,7 +16467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:7">
       <c r="A306" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16481,7 +16492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:7">
       <c r="A307" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16506,7 +16517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:7">
       <c r="A308" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16531,7 +16542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:7">
       <c r="A309" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16556,7 +16567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:7">
       <c r="A310" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16581,7 +16592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:7">
       <c r="A311" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16606,7 +16617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:7">
       <c r="A312" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16631,7 +16642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:7">
       <c r="A313" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16656,7 +16667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:7">
       <c r="A314" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16681,7 +16692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:7">
       <c r="A315" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16706,7 +16717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:7">
       <c r="A316" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16731,7 +16742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:7">
       <c r="A317" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16756,7 +16767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:7">
       <c r="A318" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16781,7 +16792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:7">
       <c r="A319" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16806,7 +16817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:7">
       <c r="A320" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16831,7 +16842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:7">
       <c r="A321" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16856,7 +16867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:7">
       <c r="A322" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16881,7 +16892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:7">
       <c r="A323" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16906,7 +16917,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:7">
       <c r="A324" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16931,7 +16942,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:7">
       <c r="A325" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -16956,7 +16967,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:7">
       <c r="A326" s="30" t="s">
         <v>1281</v>
       </c>
@@ -16980,7 +16991,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:7">
       <c r="A327" s="30" t="s">
         <v>1281</v>
       </c>
@@ -17004,7 +17015,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:7">
       <c r="A328" s="30" t="s">
         <v>1281</v>
       </c>
@@ -17028,7 +17039,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:7">
       <c r="A329" s="30" t="s">
         <v>1281</v>
       </c>
@@ -17052,7 +17063,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:7">
       <c r="A330" s="28" t="s">
         <v>1343</v>
       </c>
@@ -17076,7 +17087,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:7">
       <c r="A331" s="28" t="s">
         <v>1281</v>
       </c>
@@ -17100,7 +17111,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:7">
       <c r="A332" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD103</v>
@@ -17125,7 +17136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:7">
       <c r="A333" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17150,7 +17161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:7">
       <c r="A334" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17175,7 +17186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:7">
       <c r="A335" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17200,7 +17211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:7">
       <c r="A336" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17225,7 +17236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:7">
       <c r="A337" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17250,7 +17261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:7">
       <c r="A338" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17275,7 +17286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:7">
       <c r="A339" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17300,7 +17311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:7">
       <c r="A340" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17325,7 +17336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:7">
       <c r="A341" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD104</v>
@@ -17350,7 +17361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:7">
       <c r="A342" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17375,7 +17386,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:7">
       <c r="A343" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17400,7 +17411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:7">
       <c r="A344" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17425,7 +17436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:7">
       <c r="A345" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17450,7 +17461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:7">
       <c r="A346" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17475,7 +17486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:7">
       <c r="A347" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17500,7 +17511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:7">
       <c r="A348" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17525,7 +17536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:7">
       <c r="A349" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17550,7 +17561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:7">
       <c r="A350" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17575,7 +17586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:7">
       <c r="A351" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17600,7 +17611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:7">
       <c r="A352" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD105</v>
@@ -17625,7 +17636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:7">
       <c r="A353" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17650,7 +17661,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:7">
       <c r="A354" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17675,7 +17686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:7">
       <c r="A355" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17700,7 +17711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:7">
       <c r="A356" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17725,7 +17736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:7">
       <c r="A357" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17750,7 +17761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:7">
       <c r="A358" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD106</v>
@@ -17775,7 +17786,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:7">
       <c r="A359" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD107</v>
@@ -17800,7 +17811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD107</v>
@@ -17825,7 +17836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:7">
       <c r="A361" s="2" t="str">
         <f t="shared" si="9"/>
         <v>GD107</v>
@@ -17850,7 +17861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:7">
       <c r="A362" s="2" t="str">
         <f t="shared" ref="A362:A425" si="11">LEFT(C362,5)</f>
         <v>GD107</v>
@@ -17875,7 +17886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:7">
       <c r="A363" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -17900,7 +17911,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:7">
       <c r="A364" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -17925,7 +17936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:7">
       <c r="A365" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -17950,7 +17961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:7">
       <c r="A366" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -17975,7 +17986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:7">
       <c r="A367" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18000,7 +18011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:7">
       <c r="A368" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18025,7 +18036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:7">
       <c r="A369" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18050,7 +18061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:7">
       <c r="A370" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18075,7 +18086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18100,7 +18111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18125,7 +18136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:7">
       <c r="A373" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18150,7 +18161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:7">
       <c r="A374" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18175,7 +18186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:7">
       <c r="A375" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD107</v>
@@ -18200,7 +18211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18225,7 +18236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:7">
       <c r="A377" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18250,7 +18261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:7">
       <c r="A378" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18275,7 +18286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:7">
       <c r="A379" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18300,7 +18311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:7">
       <c r="A380" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18325,7 +18336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:7">
       <c r="A381" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18350,7 +18361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:7">
       <c r="A382" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD108</v>
@@ -18375,7 +18386,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:7">
       <c r="A383" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18400,7 +18411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:7">
       <c r="A384" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18425,7 +18436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:7">
       <c r="A385" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18450,7 +18461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:7">
       <c r="A386" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18475,7 +18486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:7">
       <c r="A387" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18500,7 +18511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:7">
       <c r="A388" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18525,7 +18536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:7">
       <c r="A389" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18550,7 +18561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:7">
       <c r="A390" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18575,7 +18586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:7">
       <c r="A391" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18600,7 +18611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:7">
       <c r="A392" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18625,7 +18636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:7">
       <c r="A393" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18650,7 +18661,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:7">
       <c r="A394" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18675,7 +18686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:7">
       <c r="A395" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD109</v>
@@ -18700,7 +18711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:7">
       <c r="A396" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18725,7 +18736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:7">
       <c r="A397" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18750,7 +18761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:7">
       <c r="A398" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18775,7 +18786,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:7">
       <c r="A399" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18800,7 +18811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:7">
       <c r="A400" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18825,7 +18836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:7">
       <c r="A401" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18850,7 +18861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:7">
       <c r="A402" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18875,7 +18886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:7">
       <c r="A403" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18900,7 +18911,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:7">
       <c r="A404" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18925,7 +18936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:7">
       <c r="A405" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18950,7 +18961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:7">
       <c r="A406" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -18975,7 +18986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:7">
       <c r="A407" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -19000,7 +19011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:7">
       <c r="A408" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD110</v>
@@ -19025,7 +19036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:7">
       <c r="A409" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19050,7 +19061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:7">
       <c r="A410" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19075,7 +19086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:7">
       <c r="A411" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19100,7 +19111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:7">
       <c r="A412" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19125,7 +19136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:7">
       <c r="A413" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19150,7 +19161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:7">
       <c r="A414" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19175,7 +19186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:7">
       <c r="A415" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19200,7 +19211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:7">
       <c r="A416" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19225,7 +19236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:7">
       <c r="A417" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19250,7 +19261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:7">
       <c r="A418" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19275,7 +19286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:7">
       <c r="A419" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19300,7 +19311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:7">
       <c r="A420" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19325,7 +19336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:7">
       <c r="A421" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19350,7 +19361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:7">
       <c r="A422" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19375,7 +19386,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:7">
       <c r="A423" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19400,7 +19411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:7">
       <c r="A424" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19425,7 +19436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:7">
       <c r="A425" s="2" t="str">
         <f t="shared" si="11"/>
         <v>GD111</v>
@@ -19450,7 +19461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:7">
       <c r="A426" s="2" t="str">
         <f t="shared" ref="A426:A489" si="13">LEFT(C426,5)</f>
         <v>GD111</v>
@@ -19475,7 +19486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:7">
       <c r="A427" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19500,7 +19511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:7">
       <c r="A428" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19525,7 +19536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:7">
       <c r="A429" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19550,7 +19561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:7">
       <c r="A430" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19575,7 +19586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:7">
       <c r="A431" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19600,7 +19611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:7">
       <c r="A432" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19625,7 +19636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:7">
       <c r="A433" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19650,7 +19661,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:7">
       <c r="A434" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19675,7 +19686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:7">
       <c r="A435" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19700,7 +19711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:7">
       <c r="A436" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19725,7 +19736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:7">
       <c r="A437" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19750,7 +19761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:7">
       <c r="A438" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19775,7 +19786,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:7">
       <c r="A439" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19800,7 +19811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:7">
       <c r="A440" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19825,7 +19836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:7">
       <c r="A441" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19850,7 +19861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:7">
       <c r="A442" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19875,7 +19886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:7">
       <c r="A443" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19900,7 +19911,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:7">
       <c r="A444" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19925,7 +19936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:7">
       <c r="A445" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19950,7 +19961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:7">
       <c r="A446" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -19975,7 +19986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:7">
       <c r="A447" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20000,7 +20011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:7">
       <c r="A448" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20025,7 +20036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:7">
       <c r="A449" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20050,7 +20061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:7">
       <c r="A450" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20075,7 +20086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:7">
       <c r="A451" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20100,7 +20111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:7">
       <c r="A452" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20125,7 +20136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:7">
       <c r="A453" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20150,7 +20161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:7">
       <c r="A454" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20175,7 +20186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:7">
       <c r="A455" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20200,7 +20211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:7">
       <c r="A456" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20225,7 +20236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:7">
       <c r="A457" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20250,7 +20261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:7">
       <c r="A458" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20275,7 +20286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:7">
       <c r="A459" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20300,7 +20311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:7">
       <c r="A460" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20325,7 +20336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:7">
       <c r="A461" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20350,7 +20361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:7">
       <c r="A462" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20375,7 +20386,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:7">
       <c r="A463" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20400,7 +20411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:7">
       <c r="A464" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD111</v>
@@ -20425,7 +20436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:7">
       <c r="A465" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20450,7 +20461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:7">
       <c r="A466" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20475,7 +20486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:7">
       <c r="A467" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20500,7 +20511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:7">
       <c r="A468" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20525,7 +20536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:7">
       <c r="A469" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20550,7 +20561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:7">
       <c r="A470" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20575,7 +20586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:7">
       <c r="A471" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20600,7 +20611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:7">
       <c r="A472" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20625,7 +20636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:7">
       <c r="A473" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20650,7 +20661,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:7">
       <c r="A474" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20675,7 +20686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:7">
       <c r="A475" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20700,7 +20711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:7">
       <c r="A476" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20725,7 +20736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:7">
       <c r="A477" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20750,7 +20761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:7">
       <c r="A478" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20775,7 +20786,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:7">
       <c r="A479" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20800,7 +20811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:7">
       <c r="A480" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20825,7 +20836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:7">
       <c r="A481" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20850,7 +20861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:7">
       <c r="A482" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20875,7 +20886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:7">
       <c r="A483" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20900,7 +20911,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:7">
       <c r="A484" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20925,7 +20936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:7">
       <c r="A485" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20950,7 +20961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:7">
       <c r="A486" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -20975,7 +20986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:7">
       <c r="A487" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -21000,7 +21011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:7">
       <c r="A488" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -21025,7 +21036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:7">
       <c r="A489" s="2" t="str">
         <f t="shared" si="13"/>
         <v>GD112</v>
@@ -21050,7 +21061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:7">
       <c r="A490" s="2" t="str">
         <f t="shared" ref="A490:A562" si="15">LEFT(C490,5)</f>
         <v>GD112</v>
@@ -21075,7 +21086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:7">
       <c r="A491" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21100,7 +21111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:7">
       <c r="A492" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21125,7 +21136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:7">
       <c r="A493" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21150,7 +21161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:7">
       <c r="A494" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21175,7 +21186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:7">
       <c r="A495" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21200,7 +21211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:7">
       <c r="A496" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21222,7 +21233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:7">
       <c r="A497" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD112</v>
@@ -21247,7 +21258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:7">
       <c r="A498" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21272,7 +21283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:7">
       <c r="A499" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21297,7 +21308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:7">
       <c r="A500" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21322,7 +21333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:7">
       <c r="A501" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21347,7 +21358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:7">
       <c r="A502" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21372,7 +21383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:7">
       <c r="A503" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21397,7 +21408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:7">
       <c r="A504" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21422,7 +21433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:7">
       <c r="A505" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21447,7 +21458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:7">
       <c r="A506" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21472,7 +21483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:7">
       <c r="A507" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21497,7 +21508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:7">
       <c r="A508" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21522,7 +21533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:7">
       <c r="A509" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21547,7 +21558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:7">
       <c r="A510" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21572,7 +21583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:7">
       <c r="A511" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21597,7 +21608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:7">
       <c r="A512" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21622,7 +21633,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:7">
       <c r="A513" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21647,7 +21658,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:7">
       <c r="A514" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21672,7 +21683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:7">
       <c r="A515" s="2" t="str">
         <f>LEFT(C515,5)</f>
         <v>GD113</v>
@@ -21697,7 +21708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:7">
       <c r="A516" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21722,7 +21733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:7">
       <c r="A517" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21747,7 +21758,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:7">
       <c r="A518" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21772,7 +21783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:7">
       <c r="A519" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21797,7 +21808,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:7">
       <c r="A520" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21822,7 +21833,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:7">
       <c r="A521" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21847,7 +21858,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:7">
       <c r="A522" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21872,7 +21883,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:7">
       <c r="A523" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21897,7 +21908,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:7">
       <c r="A524" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21922,7 +21933,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:7">
       <c r="A525" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21947,7 +21958,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:7">
       <c r="A526" s="30" t="str">
         <f>LEFT(C526,5)</f>
         <v>GD113</v>
@@ -21972,7 +21983,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:7">
       <c r="A527" s="30" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -21997,7 +22008,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:7">
       <c r="A528" s="30" t="str">
         <f t="shared" ref="A528:A529" si="17">LEFT(C528,5)</f>
         <v>GD113</v>
@@ -22022,7 +22033,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:7">
       <c r="A529" s="30" t="str">
         <f t="shared" si="17"/>
         <v>GD113</v>
@@ -22047,7 +22058,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:7">
       <c r="A530" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD113</v>
@@ -22072,7 +22083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:7">
       <c r="A531" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22097,7 +22108,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:7">
       <c r="A532" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22122,7 +22133,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:7">
       <c r="A533" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22147,7 +22158,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:7">
       <c r="A534" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22172,7 +22183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:7">
       <c r="A535" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22197,7 +22208,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:7">
       <c r="A536" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22222,7 +22233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:7">
       <c r="A537" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22247,7 +22258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:7">
       <c r="A538" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22272,7 +22283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:7">
       <c r="A539" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22297,7 +22308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:7">
       <c r="A540" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22322,7 +22333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:7">
       <c r="A541" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22347,7 +22358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:7">
       <c r="A542" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22372,7 +22383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:7">
       <c r="A543" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22397,7 +22408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:7">
       <c r="A544" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22422,7 +22433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:7">
       <c r="A545" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22447,7 +22458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:7">
       <c r="A546" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22472,7 +22483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:7">
       <c r="A547" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22497,7 +22508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:7">
       <c r="A548" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22522,7 +22533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:7">
       <c r="A549" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22547,7 +22558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:7">
       <c r="A550" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22572,7 +22583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:7">
       <c r="A551" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22597,7 +22608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:7">
       <c r="A552" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22622,7 +22633,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:7">
       <c r="A553" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22647,7 +22658,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:7">
       <c r="A554" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22672,7 +22683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:7">
       <c r="A555" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22697,7 +22708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:7">
       <c r="A556" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22722,7 +22733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:7">
       <c r="A557" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22747,7 +22758,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:7">
       <c r="A558" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22772,7 +22783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:7">
       <c r="A559" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22797,7 +22808,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:7">
       <c r="A560" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22822,7 +22833,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:7">
       <c r="A561" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22847,7 +22858,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:7">
       <c r="A562" s="2" t="str">
         <f t="shared" si="15"/>
         <v>GD114</v>
@@ -22872,7 +22883,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:7">
       <c r="A563" s="2" t="str">
         <f t="shared" ref="A563:A638" si="19">LEFT(C563,5)</f>
         <v>GD114</v>
@@ -22897,7 +22908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:7">
       <c r="A564" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -22922,7 +22933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:7">
       <c r="A565" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -22947,7 +22958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:7">
       <c r="A566" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -22972,7 +22983,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:7">
       <c r="A567" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -22997,7 +23008,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:7">
       <c r="A568" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23022,7 +23033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:7">
       <c r="A569" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23047,7 +23058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:7">
       <c r="A570" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23072,7 +23083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:7">
       <c r="A571" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23097,7 +23108,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:7">
       <c r="A572" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23122,7 +23133,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:7">
       <c r="A573" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23147,7 +23158,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:7">
       <c r="A574" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23172,7 +23183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:7">
       <c r="A575" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23197,7 +23208,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:7">
       <c r="A576" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23222,7 +23233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:7">
       <c r="A577" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23247,7 +23258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:7">
       <c r="A578" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23272,7 +23283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:7">
       <c r="A579" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23297,7 +23308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:7">
       <c r="A580" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD114</v>
@@ -23322,7 +23333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:7">
       <c r="A581" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23347,7 +23358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:7">
       <c r="A582" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23372,7 +23383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:7">
       <c r="A583" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23397,7 +23408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:7">
       <c r="A584" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23422,7 +23433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:7">
       <c r="A585" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23447,7 +23458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:7">
       <c r="A586" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23472,7 +23483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:7">
       <c r="A587" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23497,7 +23508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:7">
       <c r="A588" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23522,7 +23533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:7">
       <c r="A589" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23547,7 +23558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:7">
       <c r="A590" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23572,7 +23583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:7">
       <c r="A591" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23597,7 +23608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:7">
       <c r="A592" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23622,7 +23633,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:7">
       <c r="A593" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23647,7 +23658,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:7">
       <c r="A594" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23672,7 +23683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:7">
       <c r="A595" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23697,7 +23708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:7">
       <c r="A596" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23722,7 +23733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:7">
       <c r="A597" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23747,7 +23758,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:7">
       <c r="A598" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23772,7 +23783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:7">
       <c r="A599" s="2" t="str">
         <f t="shared" ref="A599:A603" si="21">LEFT(C599,5)</f>
         <v>GD115</v>
@@ -23797,107 +23808,107 @@
         <v>178</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A600" s="43" t="str">
+    <row r="600" spans="1:7">
+      <c r="A600" s="34" t="str">
         <f t="shared" si="21"/>
         <v>GD115</v>
       </c>
-      <c r="B600" s="43" t="str">
+      <c r="B600" s="34" t="str">
         <f>RIGHT(C600,3)</f>
         <v>019</v>
       </c>
-      <c r="C600" s="43" t="s">
+      <c r="C600" s="34" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D600" s="34" t="s">
         <v>1426</v>
-      </c>
-      <c r="D600" s="43" t="s">
-        <v>1427</v>
       </c>
       <c r="E600" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F600" s="43">
-        <v>100</v>
-      </c>
-      <c r="G600" s="44" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A601" s="43" t="str">
+      <c r="F600" s="34">
+        <v>100</v>
+      </c>
+      <c r="G600" s="35" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
+      <c r="A601" s="34" t="str">
         <f t="shared" si="21"/>
         <v>GD115</v>
       </c>
-      <c r="B601" s="43" t="str">
+      <c r="B601" s="34" t="str">
         <f>RIGHT(C601,3)</f>
         <v>020</v>
       </c>
-      <c r="C601" s="43" t="s">
+      <c r="C601" s="34" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D601" s="34" t="s">
         <v>1428</v>
-      </c>
-      <c r="D601" s="43" t="s">
-        <v>1429</v>
       </c>
       <c r="E601" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F601" s="43">
-        <v>100</v>
-      </c>
-      <c r="G601" s="44" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A602" s="43" t="str">
+      <c r="F601" s="34">
+        <v>100</v>
+      </c>
+      <c r="G601" s="35" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
+      <c r="A602" s="34" t="str">
         <f t="shared" si="21"/>
         <v>GD115</v>
       </c>
-      <c r="B602" s="43" t="str">
+      <c r="B602" s="34" t="str">
         <f>RIGHT(C602,3)</f>
         <v>021</v>
       </c>
-      <c r="C602" s="43" t="s">
+      <c r="C602" s="34" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D602" s="34" t="s">
         <v>1430</v>
-      </c>
-      <c r="D602" s="43" t="s">
-        <v>1431</v>
       </c>
       <c r="E602" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F602" s="43">
-        <v>100</v>
-      </c>
-      <c r="G602" s="44" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A603" s="43" t="str">
+      <c r="F602" s="34">
+        <v>100</v>
+      </c>
+      <c r="G602" s="35" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
+      <c r="A603" s="34" t="str">
         <f t="shared" si="21"/>
         <v>GD115</v>
       </c>
-      <c r="B603" s="43" t="str">
+      <c r="B603" s="34" t="str">
         <f>RIGHT(C603,3)</f>
         <v>022</v>
       </c>
-      <c r="C603" s="43" t="s">
+      <c r="C603" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D603" s="34" t="s">
         <v>1432</v>
-      </c>
-      <c r="D603" s="43" t="s">
-        <v>1433</v>
       </c>
       <c r="E603" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F603" s="43">
-        <v>100</v>
-      </c>
-      <c r="G603" s="44" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F603" s="34">
+        <v>100</v>
+      </c>
+      <c r="G603" s="35" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
       <c r="A604" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD115</v>
@@ -23922,7 +23933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:7">
       <c r="A605" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -23947,7 +23958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:7">
       <c r="A606" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -23972,7 +23983,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:7">
       <c r="A607" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -23997,7 +24008,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:7">
       <c r="A608" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24022,7 +24033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:7">
       <c r="A609" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24047,7 +24058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:7">
       <c r="A610" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24072,7 +24083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:7">
       <c r="A611" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24097,7 +24108,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:7">
       <c r="A612" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24122,7 +24133,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:7">
       <c r="A613" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24147,7 +24158,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:7">
       <c r="A614" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24172,7 +24183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:7">
       <c r="A615" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24197,7 +24208,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:7">
       <c r="A616" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24222,7 +24233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:7">
       <c r="A617" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24247,7 +24258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:7" s="33" customFormat="1">
       <c r="A618" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24272,7 +24283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:7" s="33" customFormat="1">
       <c r="A619" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24297,7 +24308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:7">
       <c r="A620" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24322,7 +24333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:7">
       <c r="A621" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24347,7 +24358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:7">
       <c r="A622" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24372,7 +24383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:7">
       <c r="A623" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24397,7 +24408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:7">
       <c r="A624" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24422,7 +24433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:7">
       <c r="A625" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24447,7 +24458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:7">
       <c r="A626" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24472,7 +24483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:7">
       <c r="A627" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24497,7 +24508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:7">
       <c r="A628" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24522,7 +24533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:7">
       <c r="A629" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24547,7 +24558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:7">
       <c r="A630" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24572,7 +24583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:7">
       <c r="A631" s="2" t="str">
         <f t="shared" si="19"/>
         <v>GD116</v>
@@ -24597,7 +24608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:7">
       <c r="A632" s="2" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -24607,7 +24618,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:7">
       <c r="A633" s="2" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -24617,7 +24628,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:7">
       <c r="A634" s="2" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -24627,7 +24638,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:7">
       <c r="A635" s="2" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -24637,7 +24648,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:7">
       <c r="A638" s="2" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -24662,7 +24673,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -24673,7 +24684,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -24696,7 +24707,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A16" si="0">LEFT(C2,5)</f>
         <v>OR101</v>
@@ -24721,7 +24732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24746,7 +24757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24771,7 +24782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24796,7 +24807,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24821,7 +24832,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24846,7 +24857,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR101</v>
@@ -24871,7 +24882,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -24896,7 +24907,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -24921,7 +24932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -24946,7 +24957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -24971,7 +24982,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -24996,7 +25007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -25021,7 +25032,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -25046,7 +25057,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OR102</v>
@@ -25086,7 +25097,7 @@
       <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -25097,7 +25108,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -25120,7 +25131,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A31" si="0">LEFT(C2,5)</f>
         <v>RT101</v>
@@ -25145,7 +25156,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT101</v>
@@ -25170,7 +25181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT101</v>
@@ -25195,7 +25206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT101</v>
@@ -25220,7 +25231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25245,7 +25256,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25270,7 +25281,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25295,7 +25306,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25320,7 +25331,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25345,7 +25356,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25370,7 +25381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT102</v>
@@ -25395,7 +25406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25420,7 +25431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25445,7 +25456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25470,7 +25481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25495,7 +25506,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25520,7 +25531,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25545,7 +25556,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25570,7 +25581,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25595,7 +25606,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25620,7 +25631,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25645,7 +25656,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25670,7 +25681,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25695,7 +25706,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25720,7 +25731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25745,7 +25756,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25770,7 +25781,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25795,7 +25806,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25820,7 +25831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25845,7 +25856,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>RT103</v>
@@ -25884,7 +25895,7 @@
       <selection activeCell="A2" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="10.09765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -25895,7 +25906,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -25918,7 +25929,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A23" si="0">LEFT(C2,5)</f>
         <v>CC101</v>
@@ -25943,7 +25954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC101</v>
@@ -25968,7 +25979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC101</v>
@@ -25993,7 +26004,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC101</v>
@@ -26018,7 +26029,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26043,7 +26054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26068,7 +26079,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26093,7 +26104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26118,7 +26129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26143,7 +26154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26168,7 +26179,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26193,7 +26204,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC102</v>
@@ -26218,7 +26229,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26243,7 +26254,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26268,7 +26279,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26293,7 +26304,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26318,7 +26329,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26343,7 +26354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26368,7 +26379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26393,7 +26404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26418,7 +26429,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26443,7 +26454,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CC103</v>
@@ -26483,7 +26494,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9.8984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -26494,7 +26505,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -26517,7 +26528,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A13" si="0">LEFT(C2,5)</f>
         <v>CS101</v>
@@ -26542,7 +26553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS101</v>
@@ -26567,7 +26578,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS101</v>
@@ -26592,7 +26603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS101</v>
@@ -26617,7 +26628,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS101</v>
@@ -26642,7 +26653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26667,7 +26678,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26692,7 +26703,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26717,7 +26728,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26742,7 +26753,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26767,7 +26778,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26792,7 +26803,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CS102</v>
@@ -26831,7 +26842,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
@@ -26842,7 +26853,7 @@
     <col min="7" max="7" width="20.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -26865,7 +26876,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A41" si="0">LEFT(C2,5)</f>
         <v>CM101</v>
@@ -26890,7 +26901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM101</v>
@@ -26915,7 +26926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM101</v>
@@ -26940,7 +26951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM102</v>
@@ -26965,7 +26976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM102</v>
@@ -26990,7 +27001,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM102</v>
@@ -27015,7 +27026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27040,7 +27051,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27065,7 +27076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27090,7 +27101,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27115,7 +27126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27140,7 +27151,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27165,7 +27176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27190,7 +27201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM103</v>
@@ -27215,7 +27226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM104</v>
@@ -27240,7 +27251,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM104</v>
@@ -27265,7 +27276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM104</v>
@@ -27290,7 +27301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM104</v>
@@ -27315,7 +27326,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM108</v>
@@ -27340,7 +27351,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM108</v>
@@ -27365,7 +27376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM108</v>
@@ -27390,7 +27401,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM108</v>
@@ -27415,7 +27426,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM109</v>
@@ -27440,7 +27451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM109</v>
@@ -27465,7 +27476,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM109</v>
@@ -27490,7 +27501,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM109</v>
@@ -27515,7 +27526,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM110</v>
@@ -27540,7 +27551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM110</v>
@@ -27565,7 +27576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM110</v>
@@ -27590,7 +27601,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM110</v>
@@ -27615,7 +27626,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM111</v>
@@ -27640,7 +27651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM111</v>
@@ -27665,7 +27676,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM111</v>
@@ -27690,7 +27701,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27715,7 +27726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27740,7 +27751,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27765,7 +27776,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27790,7 +27801,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27815,7 +27826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
@@ -27840,7 +27851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CM112</v>
